--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Eckpinn 1926.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Eckpinn 1926.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="59">
   <si>
     <t>firstName</t>
   </si>
@@ -148,7 +148,46 @@
     <t>Zimmermann</t>
   </si>
   <si>
+    <t>Gudrun</t>
+  </si>
+  <si>
+    <t>Grote</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Wortmann</t>
+  </si>
+  <si>
+    <t>Rudolf</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Borchert</t>
+  </si>
+  <si>
+    <t>Guido</t>
+  </si>
+  <si>
+    <t>Bexten</t>
+  </si>
+  <si>
+    <t>Dirk</t>
+  </si>
+  <si>
+    <t>Gödde</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Aßhoff</t>
   </si>
 </sst>
 </file>
@@ -227,11 +266,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -285,26 +324,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="3">
@@ -321,26 +360,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I3" s="3">
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="4">
@@ -357,26 +396,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="5">
@@ -393,26 +432,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I5" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="6">
@@ -429,26 +468,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="7">
@@ -465,26 +504,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I7" s="3">
         <v>0.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +555,7 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6">
@@ -552,7 +591,7 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6">
@@ -573,26 +612,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I10" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
-        <v>0.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="11">
@@ -609,26 +648,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="6">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="12">
@@ -645,26 +684,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I12" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="13">
@@ -681,26 +720,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I13" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6">
-        <v>0.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="14">
@@ -717,26 +756,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I14" s="3">
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="15">
@@ -753,26 +792,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="16">
@@ -789,26 +828,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="17">
@@ -825,26 +864,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G17" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I17" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +915,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6">
@@ -897,26 +936,26 @@
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I19" s="3">
         <v>0.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="20">
@@ -933,26 +972,26 @@
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G20" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I20" s="3">
         <v>0.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="21">
@@ -969,26 +1008,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F21" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G21" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I21" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="22">
@@ -1005,26 +1044,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I22" s="3">
         <v>0.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="23">
@@ -1041,26 +1080,26 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I23" s="3">
         <v>0.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="24">
@@ -1077,26 +1116,26 @@
         <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I24" s="3">
         <v>0.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="25">
@@ -1113,26 +1152,26 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I25" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="26">
@@ -1149,26 +1188,26 @@
         <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F26" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H26" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I26" s="3">
         <v>0.0</v>
       </c>
       <c r="J26" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="6">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="27">
@@ -1185,26 +1224,26 @@
         <v>12</v>
       </c>
       <c r="E27" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F27" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H27" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I27" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="6">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="28">
@@ -1221,26 +1260,26 @@
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F28" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G28" s="3">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H28" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I28" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="6">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="29">
@@ -1257,26 +1296,26 @@
         <v>12</v>
       </c>
       <c r="E29" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F29" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G29" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H29" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I29" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="6">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="30">
@@ -1308,7 +1347,7 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="6">
@@ -1344,7 +1383,7 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6">
@@ -1380,7 +1419,7 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6">
@@ -1416,7 +1455,7 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6">
@@ -1452,7 +1491,7 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="6">
@@ -1488,7 +1527,7 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6">
@@ -1524,7 +1563,7 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="6">
@@ -1560,7 +1599,7 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="6">
@@ -1581,26 +1620,26 @@
         <v>12</v>
       </c>
       <c r="E38" s="7">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F38" s="7">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G38" s="7">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H38" s="7">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I38" s="7">
         <v>0.0</v>
       </c>
       <c r="J38" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="6">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="39">
@@ -1617,26 +1656,26 @@
         <v>12</v>
       </c>
       <c r="E39" s="7">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F39" s="7">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G39" s="7">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H39" s="7">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I39" s="7">
         <v>0.0</v>
       </c>
       <c r="J39" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="6">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="40">
@@ -1653,26 +1692,26 @@
         <v>12</v>
       </c>
       <c r="E40" s="7">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F40" s="7">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G40" s="7">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H40" s="7">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I40" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="6">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="41">
@@ -1689,26 +1728,26 @@
         <v>12</v>
       </c>
       <c r="E41" s="7">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F41" s="7">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G41" s="7">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H41" s="7">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I41" s="7">
         <v>0.0</v>
       </c>
       <c r="J41" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="42">
@@ -1725,26 +1764,26 @@
         <v>12</v>
       </c>
       <c r="E42" s="7">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="F42" s="7">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G42" s="7">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H42" s="7">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I42" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J42" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="6">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="43">
@@ -1761,26 +1800,26 @@
         <v>12</v>
       </c>
       <c r="E43" s="7">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F43" s="7">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G43" s="7">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H43" s="7">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I43" s="7">
         <v>0.0</v>
       </c>
       <c r="J43" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="6">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="44">
@@ -1797,26 +1836,26 @@
         <v>12</v>
       </c>
       <c r="E44" s="7">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F44" s="7">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G44" s="7">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H44" s="7">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I44" s="7">
         <v>0.0</v>
       </c>
       <c r="J44" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="45">
@@ -1833,26 +1872,26 @@
         <v>12</v>
       </c>
       <c r="E45" s="7">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="F45" s="7">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G45" s="7">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H45" s="7">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I45" s="7">
         <v>0.0</v>
       </c>
       <c r="J45" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="46">
@@ -1884,7 +1923,7 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6">
@@ -1920,7 +1959,7 @@
         <v>0.0</v>
       </c>
       <c r="J47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6">
@@ -1956,7 +1995,7 @@
         <v>0.0</v>
       </c>
       <c r="J48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6">
@@ -1992,7 +2031,7 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6">
@@ -2013,25 +2052,25 @@
         <v>12</v>
       </c>
       <c r="E50" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F50" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G50" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H50" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I50" s="6">
         <v>0.0</v>
       </c>
       <c r="J50" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="6">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="51">
@@ -2048,25 +2087,25 @@
         <v>12</v>
       </c>
       <c r="E51" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F51" s="6">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G51" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H51" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I51" s="6">
         <v>0.0</v>
       </c>
       <c r="J51" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="6">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="52">
@@ -2083,25 +2122,25 @@
         <v>12</v>
       </c>
       <c r="E52" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F52" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G52" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H52" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I52" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J52" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="6">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="53">
@@ -2118,25 +2157,25 @@
         <v>12</v>
       </c>
       <c r="E53" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F53" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G53" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H53" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I53" s="6">
         <v>0.0</v>
       </c>
       <c r="J53" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="6">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="54">
@@ -2153,25 +2192,25 @@
         <v>12</v>
       </c>
       <c r="E54" s="6">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F54" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G54" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H54" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I54" s="6">
         <v>0.0</v>
       </c>
       <c r="J54" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="6">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="55">
@@ -2188,25 +2227,25 @@
         <v>12</v>
       </c>
       <c r="E55" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F55" s="6">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G55" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H55" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I55" s="6">
         <v>0.0</v>
       </c>
       <c r="J55" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="6">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="56">
@@ -2238,7 +2277,7 @@
         <v>0.0</v>
       </c>
       <c r="J56" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="6">
         <v>0.0</v>
@@ -2273,7 +2312,7 @@
         <v>0.0</v>
       </c>
       <c r="J57" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="6">
         <v>0.0</v>
@@ -2293,25 +2332,25 @@
         <v>12</v>
       </c>
       <c r="E58" s="6">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F58" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G58" s="6">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H58" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I58" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J58" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="6">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="59">
@@ -2328,25 +2367,25 @@
         <v>12</v>
       </c>
       <c r="E59" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F59" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G59" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H59" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I59" s="6">
         <v>0.0</v>
       </c>
       <c r="J59" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="6">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="60">
@@ -2363,25 +2402,25 @@
         <v>12</v>
       </c>
       <c r="E60" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F60" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G60" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H60" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I60" s="6">
         <v>0.0</v>
       </c>
       <c r="J60" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="6">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="61">
@@ -2398,25 +2437,25 @@
         <v>12</v>
       </c>
       <c r="E61" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F61" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G61" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H61" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I61" s="6">
         <v>0.0</v>
       </c>
       <c r="J61" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="6">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="62">
@@ -2433,25 +2472,25 @@
         <v>12</v>
       </c>
       <c r="E62" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F62" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G62" s="6">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H62" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I62" s="6">
         <v>0.0</v>
       </c>
       <c r="J62" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="63">
@@ -2468,25 +2507,25 @@
         <v>12</v>
       </c>
       <c r="E63" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F63" s="6">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G63" s="6">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H63" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I63" s="6">
         <v>0.0</v>
       </c>
       <c r="J63" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="6">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="64">
@@ -2503,25 +2542,25 @@
         <v>12</v>
       </c>
       <c r="E64" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F64" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G64" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H64" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I64" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J64" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="6">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="65">
@@ -2538,25 +2577,25 @@
         <v>12</v>
       </c>
       <c r="E65" s="6">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F65" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G65" s="6">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="H65" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I65" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="66">
@@ -2588,7 +2627,7 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="6">
         <v>0.0</v>
@@ -2608,25 +2647,25 @@
         <v>12</v>
       </c>
       <c r="E67" s="6">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F67" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G67" s="6">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H67" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I67" s="6">
         <v>0.0</v>
       </c>
       <c r="J67" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="68">
@@ -2643,25 +2682,25 @@
         <v>12</v>
       </c>
       <c r="E68" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F68" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G68" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H68" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I68" s="6">
         <v>0.0</v>
       </c>
       <c r="J68" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="69">
@@ -2693,213 +2732,255 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C70" s="6">
         <v>1.0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E70" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F70" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G70" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H70" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I70" s="6">
         <v>0.0</v>
       </c>
       <c r="J70" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="6">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C71" s="6">
         <v>1.0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E71" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F71" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G71" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H71" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I71" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J71" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="6">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C72" s="6">
         <v>2.0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E72" s="6">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F72" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G72" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H72" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I72" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J72" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="6">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C73" s="6">
         <v>2.0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E73" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F73" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G73" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H73" s="6">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I73" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J73" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C74" s="6">
         <v>3.0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E74" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F74" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G74" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H74" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I74" s="6">
         <v>0.0</v>
       </c>
       <c r="J74" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="6">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="75">
+      <c r="A75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C75" s="6">
         <v>3.0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E75" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F75" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G75" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H75" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I75" s="6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J75" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="6">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="76">
+      <c r="A76" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C76" s="6">
         <v>4.0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E76" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F76" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G76" s="6">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H76" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I76" s="6">
         <v>0.0</v>
       </c>
       <c r="J76" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="6">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="77">
@@ -2907,7 +2988,7 @@
         <v>4.0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E77" s="6">
         <v>0.0</v>
